--- a/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st03.xlsx
@@ -3108,7 +3108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She didn’t want to give up.
+    <t xml:space="preserve">She didn't want to give up.
 </t>
   </si>
   <si>
